--- a/public/template/import_model.xlsx
+++ b/public/template/import_model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="27945" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>序号</t>
   </si>
@@ -25,13 +25,16 @@
     <t>地址</t>
   </si>
   <si>
+    <t>转账数量</t>
+  </si>
+  <si>
     <t>请勿修改黄色区全域</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -55,55 +58,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,6 +115,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -193,7 +175,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,49 +217,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,121 +355,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,21 +422,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,6 +455,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,152 +528,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -680,7 +683,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -689,52 +698,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1005,21 +1014,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="D1" sqref="D1:D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="86" style="1" customWidth="1"/>
     <col min="3" max="3" width="53.125" style="1" customWidth="1"/>
-    <col min="5" max="8" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" customWidth="1"/>
+    <col min="6" max="9" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:8">
+    <row r="1" ht="30" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1029,317 +1039,369 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="4">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>12121</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>121212</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="D2" s="6"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="4">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>556435</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>3543535</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="D3" s="6"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="E4" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="E5" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="E6" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="E7" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="E8" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="E9" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="E10" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="E11" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="E12" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E1:H12"/>
+    <mergeCell ref="F1:I12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
